--- a/Data/processed/segunda_aplicacion/descriptivos.xlsx
+++ b/Data/processed/segunda_aplicacion/descriptivos.xlsx
@@ -195,13 +195,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>420.0</v>
+        <v>433.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7757936507936508</v>
+        <v>0.7786759045419553</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2136362451753379</v>
+        <v>0.21199435584550097</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -221,13 +221,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>420.0</v>
+        <v>433.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8557539682539682</v>
+        <v>0.8575827559661278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2134358290912681</v>
+        <v>0.21144797050031938</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -247,13 +247,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>420.0</v>
+        <v>433.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.794047619047619</v>
+        <v>0.7956120092378753</v>
       </c>
       <c r="C4" t="n">
-        <v>0.26561101283176425</v>
+        <v>0.26423221591910107</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -273,13 +273,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>420.0</v>
+        <v>433.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8541666666666666</v>
+        <v>0.8556581986143187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236850900872748</v>
+        <v>0.23498245311458366</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -299,13 +299,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>420.0</v>
+        <v>433.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.85</v>
+        <v>0.8527713625866051</v>
       </c>
       <c r="C6" t="n">
-        <v>0.23644644476297402</v>
+        <v>0.23410919799402924</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -325,13 +325,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>420.0</v>
+        <v>433.0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8702380952380953</v>
+        <v>0.8729792147806005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22012675991512426</v>
+        <v>0.2179123210366206</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -351,13 +351,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>420.0</v>
+        <v>433.0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6876443418013857</v>
       </c>
       <c r="C8" t="n">
-        <v>0.24673685814620397</v>
+        <v>0.24563974123438925</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -377,13 +377,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>420.0</v>
+        <v>433.0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.8441108545034642</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2473176936566324</v>
+        <v>0.24522043503123273</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -403,13 +403,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>449.0</v>
+        <v>452.0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8862117837618951</v>
+        <v>0.8857602574416734</v>
       </c>
       <c r="C10" t="n">
-        <v>0.17701452887545552</v>
+        <v>0.17723667775711438</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -429,13 +429,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>449.0</v>
+        <v>452.0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9131403118040089</v>
+        <v>0.9137168141592921</v>
       </c>
       <c r="C11" t="n">
-        <v>0.17035219499680276</v>
+        <v>0.16993141634865028</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -455,13 +455,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>449.0</v>
+        <v>452.0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8277654046028211</v>
+        <v>0.827433628318584</v>
       </c>
       <c r="C12" t="n">
-        <v>0.26824529094095</v>
+        <v>0.2676894682492954</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
@@ -481,13 +481,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>449.0</v>
+        <v>452.0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9042316258351893</v>
+        <v>0.9048672566371682</v>
       </c>
       <c r="C13" t="n">
-        <v>0.21125196016643558</v>
+        <v>0.21069204493083793</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
@@ -507,13 +507,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>449.0</v>
+        <v>452.0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9086859688195991</v>
+        <v>0.9081858407079646</v>
       </c>
       <c r="C14" t="n">
-        <v>0.18975503899767182</v>
+        <v>0.19019602671864025</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
@@ -533,13 +533,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>449.0</v>
+        <v>452.0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.928173719376392</v>
+        <v>0.9286504424778761</v>
       </c>
       <c r="C15" t="n">
-        <v>0.18219337285246842</v>
+        <v>0.18168023839755942</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
@@ -559,13 +559,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>449.0</v>
+        <v>452.0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9075723830734966</v>
+        <v>0.9070796460176991</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1899497930466366</v>
+        <v>0.1903861470669449</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
@@ -585,13 +585,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>449.0</v>
+        <v>452.0</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9047884187082406</v>
+        <v>0.9054203539823009</v>
       </c>
       <c r="C17" t="n">
-        <v>0.20109746271007856</v>
+        <v>0.20057688493152018</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
@@ -611,13 +611,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5623563218390805</v>
+        <v>0.6760992108229988</v>
       </c>
       <c r="C18" t="n">
-        <v>0.13750057867952248</v>
+        <v>0.14195229888025782</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
@@ -637,13 +637,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6711366538952745</v>
+        <v>0.7880496054114995</v>
       </c>
       <c r="C19" t="n">
-        <v>0.14330800938847651</v>
+        <v>0.1943134171456033</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
@@ -663,13 +663,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8003831417624521</v>
+        <v>0.6196918451709883</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2600735712140396</v>
+        <v>0.16126865745392158</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4268199233716475</v>
+        <v>0.8786170612551673</v>
       </c>
       <c r="C21" t="n">
-        <v>0.21381987338633593</v>
+        <v>0.2497502972575165</v>
       </c>
       <c r="D21" t="n">
         <v>0.0</v>
@@ -715,13 +715,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B22" t="n">
-        <v>0.13831417624521072</v>
+        <v>0.6242014280345735</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22192960289619268</v>
+        <v>0.2196185111891758</v>
       </c>
       <c r="D22" t="n">
         <v>0.0</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.48735632183908045</v>
+        <v>0.7049981210071402</v>
       </c>
       <c r="C23" t="n">
-        <v>0.25441964109211246</v>
+        <v>0.2992907289373786</v>
       </c>
       <c r="D23" t="n">
         <v>0.0</v>
@@ -767,13 +767,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7235632183908046</v>
+        <v>0.6561443066516347</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3159855971557615</v>
+        <v>0.3215790848613417</v>
       </c>
       <c r="D24" t="n">
         <v>0.0</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7775862068965518</v>
+        <v>0.7085682074408117</v>
       </c>
       <c r="C25" t="n">
-        <v>0.29517198870582373</v>
+        <v>0.32730323233286523</v>
       </c>
       <c r="D25" t="n">
         <v>0.0</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B26" t="n">
-        <v>0.11781609195402298</v>
+        <v>0.8585118376550169</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2342233710431612</v>
+        <v>0.2697989294483858</v>
       </c>
       <c r="D26" t="n">
         <v>0.0</v>
@@ -845,13 +845,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B27" t="n">
-        <v>0.871264367816092</v>
+        <v>0.8562570462232244</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2819495037492432</v>
+        <v>0.285904318304438</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>869.0</v>
+        <v>886.0</v>
       </c>
       <c r="B28" t="n">
-        <v>0.642692750287687</v>
+        <v>0.6428470654627539</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2243498324250149</v>
+        <v>0.22389042045141153</v>
       </c>
       <c r="D28" t="n">
         <v>0.0</v>
@@ -897,13 +897,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>869.0</v>
+        <v>886.0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6711737629459148</v>
+        <v>0.67127539503386</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2095100790603512</v>
+        <v>0.20887246751952943</v>
       </c>
       <c r="D29" t="n">
         <v>0.0</v>
@@ -923,13 +923,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5854406130268199</v>
+        <v>0.5843667794062383</v>
       </c>
       <c r="C30" t="n">
-        <v>0.32148887862178227</v>
+        <v>0.32134752295278074</v>
       </c>
       <c r="D30" t="n">
         <v>0.0</v>
@@ -949,13 +949,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6885057471264368</v>
+        <v>0.6882750845546787</v>
       </c>
       <c r="C31" t="n">
-        <v>0.30220294975602946</v>
+        <v>0.3019505496371464</v>
       </c>
       <c r="D31" t="n">
         <v>0.0</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>871.0</v>
+        <v>888.0</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8281285878300804</v>
+        <v>0.827027027027027</v>
       </c>
       <c r="C32" t="n">
-        <v>0.30297537853411216</v>
+        <v>0.30236078136847294</v>
       </c>
       <c r="D32" t="n">
         <v>0.0</v>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>871.0</v>
+        <v>888.0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8923076923076924</v>
+        <v>0.8908783783783784</v>
       </c>
       <c r="C33" t="n">
-        <v>0.24634911573987406</v>
+        <v>0.24786828444083</v>
       </c>
       <c r="D33" t="n">
         <v>0.0</v>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8514942528735632</v>
+        <v>0.8505073280721533</v>
       </c>
       <c r="C34" t="n">
-        <v>0.261211344470653</v>
+        <v>0.2625136171946218</v>
       </c>
       <c r="D34" t="n">
         <v>0.0</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>870.0</v>
+        <v>887.0</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8674712643678161</v>
+        <v>0.8680947012401353</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2579226491785359</v>
+        <v>0.25714854172519597</v>
       </c>
       <c r="D35" t="n">
         <v>0.0</v>
@@ -1079,13 +1079,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>868.0</v>
+        <v>883.0</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8218125960061444</v>
+        <v>0.8233295583238958</v>
       </c>
       <c r="C36" t="n">
-        <v>0.25913111393653626</v>
+        <v>0.2578949172541435</v>
       </c>
       <c r="D36" t="n">
         <v>0.0</v>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>868.0</v>
+        <v>883.0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6693548387096774</v>
+        <v>0.6704416761041903</v>
       </c>
       <c r="C37" t="n">
-        <v>0.21025348827835788</v>
+        <v>0.2105454738002626</v>
       </c>
       <c r="D37" t="n">
         <v>0.0</v>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>868.0</v>
+        <v>883.0</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8106758832565284</v>
+        <v>0.8104945262363156</v>
       </c>
       <c r="C38" t="n">
-        <v>0.26524748063243475</v>
+        <v>0.26432378688345015</v>
       </c>
       <c r="D38" t="n">
         <v>0.0</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>868.0</v>
+        <v>883.0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7707373271889401</v>
+        <v>0.7682144205360514</v>
       </c>
       <c r="C39" t="n">
-        <v>0.29917022950168987</v>
+        <v>0.30055189066203675</v>
       </c>
       <c r="D39" t="n">
         <v>0.0</v>
@@ -1183,13 +1183,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>868.0</v>
+        <v>883.0</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6132872503840245</v>
+        <v>0.6138165345413363</v>
       </c>
       <c r="C40" t="n">
-        <v>0.24246713033439707</v>
+        <v>0.24223983805676735</v>
       </c>
       <c r="D40" t="n">
         <v>0.0</v>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>868.0</v>
+        <v>883.0</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8498463901689708</v>
+        <v>0.850887127217818</v>
       </c>
       <c r="C41" t="n">
-        <v>0.26279138595008383</v>
+        <v>0.26137542605911346</v>
       </c>
       <c r="D41" t="n">
         <v>0.0</v>
